--- a/patient_data/patient_10.xlsx
+++ b/patient_data/patient_10.xlsx
@@ -566,13 +566,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -720,16 +720,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -948,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1377,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
